--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\DuAnBatDongSan\source\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4501BB6-245C-4E97-911E-4382AEF673B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3080435-4312-4FDF-9050-421E8287E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0FC7499-3F7C-4F6B-BE49-3322592AE59D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="206">
   <si>
     <t>STT</t>
   </si>
@@ -745,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -783,12 +783,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="61"/>
+      </left>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -824,6 +835,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,18 +1155,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A5C50D-1051-434F-91D2-76D1DC6F6B46}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="41.33203125" customWidth="1"/>
+    <col min="25" max="25" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,82 +1177,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>19</v>
       </c>
@@ -1248,69 +1259,70 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G2" s="4">
+        <v>3.24</v>
+      </c>
       <c r="H2" s="4">
-        <v>3.24</v>
-      </c>
-      <c r="I2" s="4">
         <v>13.5</v>
       </c>
-      <c r="J2" s="5">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="4">
+      <c r="T2" s="4">
         <v>126000000</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="10">
+      <c r="W2" s="10">
         <v>44538.764801122685</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="X2" s="11">
         <v>44538.764800497687</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="12"/>
+      <c r="AA2" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>61</v>
       </c>
@@ -1320,73 +1332,74 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G3" s="4">
+        <v>3.2</v>
+      </c>
       <c r="H3" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="I3" s="4">
         <v>13.7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I3" s="5">
         <v>43.7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P3" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="4">
+      <c r="T3" s="4">
         <v>0</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="10">
+      <c r="W3" s="10">
         <v>44536.677567210645</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="X3" s="11">
         <v>44536.677566516206</v>
       </c>
+      <c r="Y3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="Z3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="12"/>
+      <c r="AA3" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>65</v>
       </c>
@@ -1396,71 +1409,72 @@
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G4" s="4">
+        <v>4.8</v>
+      </c>
       <c r="H4" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="I4" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="5">
         <v>78</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="4">
+      <c r="T4" s="4">
         <v>150000000</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="10">
+      <c r="W4" s="10">
         <v>44536.607404629627</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="X4" s="11">
         <v>44536.607403969909</v>
       </c>
+      <c r="Y4" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="Z4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AA4" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>91</v>
       </c>
@@ -1470,71 +1484,72 @@
       <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G5" s="4">
+        <v>4.3</v>
+      </c>
       <c r="H5" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="I5" s="4">
         <v>16.5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="P5" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="4">
+      <c r="T5" s="4">
         <v>98000000</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="10">
+      <c r="W5" s="10">
         <v>44535.320497997687</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="X5" s="11">
         <v>44535.320497372682</v>
       </c>
+      <c r="Y5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="Z5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="12"/>
+      <c r="AA5" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="71.400000000000006" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>92</v>
       </c>
@@ -1544,71 +1559,72 @@
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
       <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
         <v>11</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" s="5">
         <v>51.3</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P6" s="3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="4">
+      <c r="T6" s="4">
         <v>68000000</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="10">
+      <c r="W6" s="10">
         <v>44534.79625871528</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="X6" s="11">
         <v>44534.79625644676</v>
       </c>
+      <c r="Y6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="Z6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" s="12"/>
+      <c r="AA6" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>107</v>
       </c>
@@ -1618,71 +1634,72 @@
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
       <c r="H7" s="4">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4">
         <v>28</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P7" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="4">
+      <c r="T7" s="4">
         <v>620000000</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="X7" s="10">
+      <c r="W7" s="10">
         <v>44534.402437615739</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="X7" s="11">
         <v>44534.402435995369</v>
       </c>
+      <c r="Y7" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="Z7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="12"/>
+      <c r="AA7" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="102" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>109</v>
       </c>
@@ -1692,71 +1709,72 @@
       <c r="C8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
       <c r="H8" s="4">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4">
         <v>6.5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="I8" s="5">
         <v>50</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="P8" s="3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U8" s="4">
+      <c r="T8" s="4">
         <v>65000000</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="X8" s="10">
+      <c r="W8" s="10">
         <v>44534.354375347219</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="X8" s="11">
         <v>44534.354374768518</v>
       </c>
+      <c r="Y8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="Z8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" s="12"/>
+      <c r="AA8" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="122.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="122.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>125</v>
       </c>
@@ -1766,71 +1784,72 @@
       <c r="C9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G9" s="4">
+        <v>5.05</v>
+      </c>
       <c r="H9" s="4">
-        <v>5.05</v>
-      </c>
-      <c r="I9" s="4">
         <v>12</v>
       </c>
-      <c r="J9" s="5">
+      <c r="I9" s="5">
         <v>60</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="P9" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="4">
+      <c r="T9" s="4">
         <v>210000000</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="10">
+      <c r="W9" s="10">
         <v>44533.417877083331</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="X9" s="11">
         <v>44533.417874768522</v>
       </c>
+      <c r="Y9" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="Z9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" s="12"/>
+      <c r="AA9" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>131</v>
       </c>
@@ -1840,71 +1859,72 @@
       <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G10" s="4">
+        <v>4.2</v>
+      </c>
       <c r="H10" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="I10" s="4">
         <v>28</v>
       </c>
-      <c r="J10" s="5">
+      <c r="I10" s="5">
         <v>117</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="O10" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="P10" s="3" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="4">
+      <c r="T10" s="4">
         <v>0</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X10" s="10">
+      <c r="W10" s="10">
         <v>44532.398512731481</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="X10" s="11">
         <v>44532.398511261577</v>
       </c>
+      <c r="Y10" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="Z10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" s="12"/>
+      <c r="AA10" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>138</v>
       </c>
@@ -1914,71 +1934,72 @@
       <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G11" s="4">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="H11" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I11" s="4">
         <v>14</v>
       </c>
-      <c r="J11" s="5">
+      <c r="I11" s="5">
         <v>57</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="O11" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="P11" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="4">
+      <c r="T11" s="4">
         <v>100000000</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="U11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="X11" s="10">
+      <c r="W11" s="10">
         <v>44532.343972372684</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="X11" s="11">
         <v>44532.343971793984</v>
       </c>
+      <c r="Y11" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="Z11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="12"/>
+      <c r="AA11" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="102" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="102" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>143</v>
       </c>
@@ -1988,71 +2009,72 @@
       <c r="C12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
       <c r="H12" s="4">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4">
         <v>14</v>
       </c>
-      <c r="J12" s="5">
+      <c r="I12" s="5">
         <v>56</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>119</v>
       </c>
+      <c r="O12" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="P12" s="3" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U12" s="4">
+      <c r="T12" s="4">
         <v>50000000</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="U12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X12" s="10">
+      <c r="W12" s="10">
         <v>44531.763520567132</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="X12" s="11">
         <v>44531.763509988428</v>
       </c>
+      <c r="Y12" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="Z12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="12"/>
+      <c r="AA12" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>161</v>
       </c>
@@ -2062,71 +2084,72 @@
       <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G13" s="4">
+        <v>4.75</v>
+      </c>
       <c r="H13" s="4">
-        <v>4.75</v>
-      </c>
-      <c r="I13" s="4">
         <v>21</v>
       </c>
-      <c r="J13" s="5">
+      <c r="I13" s="5">
         <v>100</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>126</v>
       </c>
+      <c r="O13" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="P13" s="3" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="4">
+      <c r="T13" s="4">
         <v>195000000</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="U13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="X13" s="10">
+      <c r="W13" s="10">
         <v>44531.395081747687</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="X13" s="11">
         <v>44531.395080520837</v>
       </c>
+      <c r="Y13" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="Z13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" s="12"/>
+      <c r="AA13" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>168</v>
       </c>
@@ -2136,71 +2159,72 @@
       <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
       <c r="H14" s="4">
-        <v>4</v>
-      </c>
-      <c r="I14" s="4">
         <v>15</v>
       </c>
-      <c r="J14" s="5">
+      <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="O14" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="P14" s="3" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="U14" s="4">
+      <c r="T14" s="4">
         <v>185000000</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="X14" s="10">
+      <c r="W14" s="10">
         <v>44530.607268865744</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="X14" s="11">
         <v>44530.607268321757</v>
       </c>
+      <c r="Y14" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="Z14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="12"/>
+      <c r="AA14" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>175</v>
       </c>
@@ -2210,69 +2234,70 @@
       <c r="C15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
       <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
         <v>20</v>
       </c>
-      <c r="J15" s="5">
+      <c r="I15" s="5">
         <v>100</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="O15" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="P15" s="3" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="4">
+      <c r="T15" s="4">
         <v>0</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="X15" s="10">
+      <c r="W15" s="10">
         <v>44530.42995972222</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="X15" s="11">
         <v>44530.429959027781</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="12"/>
+      <c r="AA15" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>194</v>
       </c>
@@ -2282,69 +2307,70 @@
       <c r="C16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
       <c r="H16" s="4">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4">
         <v>28</v>
       </c>
-      <c r="J16" s="5">
+      <c r="I16" s="5">
         <v>224</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="O16" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="P16" s="3" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3" t="s">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="4">
+      <c r="T16" s="4">
         <v>0</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="X16" s="10">
+      <c r="W16" s="10">
         <v>44529.492881053244</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="X16" s="11">
         <v>44529.49287858796</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>219</v>
       </c>
@@ -2354,69 +2380,70 @@
       <c r="C17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G17" s="4">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="H17" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I17" s="4">
         <v>19</v>
       </c>
-      <c r="J17" s="5">
+      <c r="I17" s="5">
         <v>84</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="O17" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="P17" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U17" s="4">
+      <c r="T17" s="4">
         <v>0</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="X17" s="10">
+      <c r="W17" s="10">
         <v>44527.474897569446</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="X17" s="11">
         <v>44527.474895601852</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" s="12"/>
+      <c r="AA17" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>230</v>
       </c>
@@ -2426,71 +2453,72 @@
       <c r="C18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
       <c r="H18" s="4">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4">
         <v>18</v>
       </c>
-      <c r="J18" s="5">
+      <c r="I18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>160</v>
       </c>
+      <c r="O18" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="P18" s="3" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="4">
+      <c r="T18" s="4">
         <v>139000000</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="U18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="X18" s="10">
+      <c r="W18" s="10">
         <v>44527.295836886573</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="X18" s="11">
         <v>44527.295836307872</v>
       </c>
+      <c r="Y18" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="Z18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="12"/>
+      <c r="AA18" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>266</v>
       </c>
@@ -2500,69 +2528,70 @@
       <c r="C19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G19" s="4">
+        <v>4.95</v>
+      </c>
       <c r="H19" s="4">
-        <v>4.95</v>
-      </c>
-      <c r="I19" s="4">
         <v>14</v>
       </c>
-      <c r="J19" s="5">
+      <c r="I19" s="5">
         <v>64</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="O19" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="P19" s="3" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="4">
+      <c r="T19" s="4">
         <v>83000000</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="U19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="X19" s="10">
+      <c r="W19" s="10">
         <v>44525.457093750003</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="X19" s="11">
         <v>44525.457091863427</v>
       </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="12"/>
+      <c r="AA19" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>268</v>
       </c>
@@ -2572,71 +2601,72 @@
       <c r="C20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G20" s="4">
+        <v>3.7</v>
+      </c>
       <c r="H20" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="I20" s="4">
         <v>13</v>
       </c>
-      <c r="J20" s="5">
+      <c r="I20" s="5">
         <v>44</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="O20" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="P20" s="3" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U20" s="4">
+      <c r="T20" s="4">
         <v>133000000</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="U20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="X20" s="10">
+      <c r="W20" s="10">
         <v>44525.374583715275</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="X20" s="11">
         <v>44525.374583564815</v>
       </c>
+      <c r="Y20" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="Z20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB20" s="12"/>
+      <c r="AA20" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>286</v>
       </c>
@@ -2646,73 +2676,74 @@
       <c r="C21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G21" s="4">
+        <v>5.3</v>
+      </c>
       <c r="H21" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="I21" s="4">
         <v>14</v>
       </c>
-      <c r="J21" s="5">
+      <c r="I21" s="5">
         <v>74</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="3" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="O21" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="P21" s="3" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U21" s="4">
+      <c r="T21" s="4">
         <v>0</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="U21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="X21" s="10">
+      <c r="W21" s="10">
         <v>44524.457832986111</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="X21" s="11">
         <v>44524.457831331019</v>
       </c>
+      <c r="Y21" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="Z21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="12"/>
+      <c r="AA21" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" ht="163.19999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>290</v>
       </c>
@@ -2722,71 +2753,72 @@
       <c r="C22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G22" s="4">
+        <v>4.41</v>
+      </c>
       <c r="H22" s="4">
-        <v>4.41</v>
-      </c>
-      <c r="I22" s="4">
         <v>18.5</v>
       </c>
-      <c r="J22" s="5">
+      <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="O22" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="P22" s="3" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="U22" s="4">
+      <c r="T22" s="4">
         <v>255000000</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="X22" s="10">
+      <c r="W22" s="10">
         <v>44524.422450810183</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="X22" s="11">
         <v>44524.422450694445</v>
       </c>
+      <c r="Y22" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="Z22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="12"/>
+      <c r="AA22" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>304</v>
       </c>
@@ -2796,71 +2828,72 @@
       <c r="C23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
       <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
         <v>26</v>
       </c>
-      <c r="J23" s="5">
+      <c r="I23" s="5">
         <v>0</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="O23" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="P23" s="3" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="U23" s="4">
+      <c r="T23" s="4">
         <v>300000000</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X23" s="10">
+      <c r="W23" s="10">
         <v>44523.626865625003</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="X23" s="11">
         <v>44523.626864583333</v>
       </c>
+      <c r="Y23" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="Z23" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="12"/>
+      <c r="AA23" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>311</v>
       </c>
@@ -2870,67 +2903,73 @@
       <c r="C24" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="G24" s="4">
+        <v>3.7</v>
+      </c>
       <c r="H24" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="I24" s="4">
         <v>14</v>
       </c>
-      <c r="J24" s="5">
+      <c r="I24" s="5">
         <v>37.14</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>203</v>
       </c>
+      <c r="O24" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="P24" s="3" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3" t="s">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="U24" s="4">
+      <c r="T24" s="4">
         <v>71000000</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="U24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="X24" s="10">
+      <c r="W24" s="10">
         <v>44523.382885995372</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="X24" s="11">
         <v>44523.382884803243</v>
       </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="12"/>
+      <c r="AA24" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA25" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
